--- a/test_suite_cnj01接件.xlsx
+++ b/test_suite_cnj01接件.xlsx
@@ -244,7 +244,7 @@
     <t>测试结果</t>
   </si>
   <si>
-    <t>cnj_st_001</t>
+    <t>cnj_st_001_登录</t>
   </si>
   <si>
     <t>海口政务系统-登录</t>
@@ -256,7 +256,7 @@
     <t>成功登录进入工作台操作页面</t>
   </si>
   <si>
-    <t>cnj_st_002</t>
+    <t>cnj_st_002_一窗受理进入</t>
   </si>
   <si>
     <t>海口政务系统-一窗受理进入</t>
@@ -271,7 +271,7 @@
     <t>进入一窗受理操作界面</t>
   </si>
   <si>
-    <t>cnj_st_003</t>
+    <t>cnj_st_003_事项搜索</t>
   </si>
   <si>
     <t>一窗受理-验证事项搜素</t>
@@ -283,7 +283,7 @@
     <t>可以搜索到事项“渔业船舶登记”并进行接件；</t>
   </si>
   <si>
-    <t>cnj_st_004</t>
+    <t>cnj_st_004_办事指南</t>
   </si>
   <si>
     <t>渔业船舶登记-办事指南</t>
@@ -295,7 +295,7 @@
     <t>基本信息、办件材料、办理流程、中介服务、拓展信息栏目页面显示合理；</t>
   </si>
   <si>
-    <t>cnj_st_005</t>
+    <t>cnj_st_005_接件流程</t>
   </si>
   <si>
     <t>渔业船舶登记-接件信息填入</t>
@@ -352,8 +352,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -383,13 +383,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -398,7 +392,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,9 +407,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -424,38 +418,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -475,30 +437,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,6 +464,60 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -534,25 +534,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,157 +708,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,17 +728,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,26 +772,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -808,23 +804,27 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -833,10 +833,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -845,19 +845,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -866,112 +866,112 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1376,7 +1376,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="$A19:$XFD19"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1786,12 +1786,12 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
     <col min="2" max="2" width="28.25" customWidth="1"/>
     <col min="3" max="3" width="9.375" customWidth="1"/>
     <col min="4" max="4" width="43.875" style="15" customWidth="1"/>
@@ -1906,12 +1906,12 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="$A19:$XFD19"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
     <col min="2" max="2" width="30.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.875" style="2" customWidth="1"/>

--- a/test_suite_cnj01接件.xlsx
+++ b/test_suite_cnj01接件.xlsx
@@ -351,10 +351,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -385,6 +385,51 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -392,7 +437,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,75 +451,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,11 +474,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -504,11 +497,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -534,25 +534,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,31 +606,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,115 +678,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,50 +725,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -802,11 +758,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,6 +787,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -833,10 +833,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -845,130 +845,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1376,7 +1376,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B15" sqref="B15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
